--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-15.08416019179032</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.17706830751637</v>
+        <v>-14.18362755124008</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5047502652961572</v>
+        <v>-0.5275308722407606</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.4796972465902</v>
+        <v>-10.52173663101498</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.96032144920539</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.38244726219453</v>
+        <v>-14.39195227405762</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4950488688904382</v>
+        <v>-0.5163500456139265</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.23248838433273</v>
+        <v>-10.27653089109229</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.76497058607722</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.69958211392966</v>
+        <v>-14.70587951159653</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4178173744270961</v>
+        <v>-0.4313024463540739</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.810379448412636</v>
+        <v>-9.851083417947562</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.49790713683768</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.15883391301173</v>
+        <v>-15.16376971118306</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3570298123329619</v>
+        <v>-0.3711825917048678</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.593675651776387</v>
+        <v>-9.634471267431206</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.16669576469628</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.60426024029293</v>
+        <v>-15.61076711480527</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3408870029291137</v>
+        <v>-0.3514132144138615</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.404203845050928</v>
+        <v>-9.442551200074343</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.75352191911432</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.08058440228061</v>
+        <v>-16.08736621515262</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3568727046988612</v>
+        <v>-0.3727143911373498</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.262977174297228</v>
+        <v>-9.298588238026722</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.26570035364144</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.5860913073025</v>
+        <v>-16.59289930478019</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1400772619427193</v>
+        <v>-0.1510486117240857</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.06062254157551</v>
+        <v>-9.096783482024357</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.70157361039232</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.20980861468233</v>
+        <v>-17.21192956774269</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06147874030565353</v>
+        <v>0.03558216528471937</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.084319609719033</v>
+        <v>-9.111944368715076</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.04555248420777</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.63262453495587</v>
+        <v>-17.63211393514504</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1849391561031304</v>
+        <v>0.168992731241908</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.769790126249406</v>
+        <v>-8.803803929032211</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.3134410456389</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.16325556913103</v>
+        <v>-18.16304609228556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3107954633206431</v>
+        <v>0.2969176223084134</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.693317985350886</v>
+        <v>-8.722880405167503</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.51336385034242</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.68512785270507</v>
+        <v>-18.6836615147868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3938399402457115</v>
+        <v>0.3714128254778348</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.191673309667308</v>
+        <v>-8.218591084309898</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.652097832384152</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.44712606269921</v>
+        <v>-19.44377443317173</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5307854279701661</v>
+        <v>0.5055958373026852</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.602585143303845</v>
+        <v>-7.626701165138304</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.767964217567449</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.27234700311605</v>
+        <v>-20.26755522027597</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7718932771033935</v>
+        <v>0.7411263654253372</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.027086787290092</v>
+        <v>-7.051399193667176</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.879051088352465</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.06835901589299</v>
+        <v>-21.06702360100314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8530524624192534</v>
+        <v>0.8254146111203696</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.481897112354934</v>
+        <v>-6.499336059740114</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.002264908036394</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.95630517922454</v>
+        <v>-21.96006267014011</v>
       </c>
       <c r="F16" t="n">
-        <v>1.099043740512444</v>
+        <v>1.072571104166474</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.982478128154452</v>
+        <v>-6.012158378696645</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.162638912250928</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.5954714039576</v>
+        <v>-22.59824697216005</v>
       </c>
       <c r="F17" t="n">
-        <v>1.276470628623516</v>
+        <v>1.248374546725172</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.861295773051435</v>
+        <v>-5.888436116842334</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.36293314871121</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.37675457603761</v>
+        <v>-23.38141543584926</v>
       </c>
       <c r="F18" t="n">
-        <v>1.600374200927819</v>
+        <v>1.570026242940698</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.463211212845913</v>
+        <v>-5.484499297266559</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.610538580986266</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.17647171051876</v>
+        <v>-24.1763276951875</v>
       </c>
       <c r="F19" t="n">
-        <v>1.851694046277593</v>
+        <v>1.817942089551623</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.20946929147042</v>
+        <v>-5.238992434378512</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.914080450104751</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.92812700126794</v>
+        <v>-24.93049670808229</v>
       </c>
       <c r="F20" t="n">
-        <v>2.075808086322259</v>
+        <v>2.039280561393844</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.974527916975646</v>
+        <v>-4.998657031112947</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.269367494872573</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.50746140201431</v>
+        <v>-25.51053809318212</v>
       </c>
       <c r="F21" t="n">
-        <v>2.430530939515986</v>
+        <v>2.397878736228721</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.718992350110836</v>
+        <v>-4.745163863491446</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.683853962670264</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.08419043449519</v>
+        <v>-26.08568295701915</v>
       </c>
       <c r="F22" t="n">
-        <v>2.71864015585101</v>
+        <v>2.685595183478493</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.43344922513279</v>
+        <v>-4.442129421916855</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.160823764857677</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.58406764929513</v>
+        <v>-26.58891180134657</v>
       </c>
       <c r="F23" t="n">
-        <v>2.914919960054167</v>
+        <v>2.882896187303305</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.280033620433445</v>
+        <v>-4.296346629774235</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.694165826039016</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.79984189242962</v>
+        <v>-26.80359938334519</v>
       </c>
       <c r="F24" t="n">
-        <v>3.041627266956392</v>
+        <v>3.003921434772221</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.101074932889891</v>
+        <v>-4.10887794538356</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.287556986553863</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.10359641066051</v>
+        <v>-27.11499980643565</v>
       </c>
       <c r="F25" t="n">
-        <v>3.348641768594868</v>
+        <v>3.311485813130049</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.846246350378534</v>
+        <v>-3.856916577194542</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9369004273010718</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.07136316106418</v>
+        <v>-27.08287129526206</v>
       </c>
       <c r="F26" t="n">
-        <v>3.429473646339685</v>
+        <v>3.385038370494866</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.807047995670407</v>
+        <v>-3.817796776303464</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.6341627849420167</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.00031123354213</v>
+        <v>-27.01641476603745</v>
       </c>
       <c r="F27" t="n">
-        <v>3.439685642556231</v>
+        <v>3.396742889235369</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.747661309980337</v>
+        <v>-3.755281030234222</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.3811996653429688</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.91462211144303</v>
+        <v>-26.92872252160357</v>
       </c>
       <c r="F28" t="n">
-        <v>3.501769342631696</v>
+        <v>3.466472494170402</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.744767911052316</v>
+        <v>-3.755294122537064</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.171597581124137</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.76900951923735</v>
+        <v>-26.78909311179656</v>
       </c>
       <c r="F29" t="n">
-        <v>3.512243184905077</v>
+        <v>3.472311661237812</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.669958492614693</v>
+        <v>-3.680615627127858</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.0008778562887951946</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.65290697763693</v>
+        <v>-26.67161587839776</v>
       </c>
       <c r="F30" t="n">
-        <v>3.483832887738531</v>
+        <v>3.449321577447741</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.629385446108184</v>
+        <v>-3.640225872861133</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.1378153283905411</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.24809297377076</v>
+        <v>-26.26864788923227</v>
       </c>
       <c r="F31" t="n">
-        <v>3.377549573269399</v>
+        <v>3.343745247332062</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.81595076160278</v>
+        <v>-3.827380341983607</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2440870371970603</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.91529972783692</v>
+        <v>-25.93586773560127</v>
       </c>
       <c r="F32" t="n">
-        <v>3.328924760515228</v>
+        <v>3.296377295650697</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.905685405279971</v>
+        <v>-3.921998414620762</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.3208282875748933</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.49630675999316</v>
+        <v>-25.51577501431881</v>
       </c>
       <c r="F33" t="n">
-        <v>3.208318466737248</v>
+        <v>3.178494200863796</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.051677674268058</v>
+        <v>-4.074183342852986</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.3668706386907625</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.03971269838797</v>
+        <v>-25.0577015224925</v>
       </c>
       <c r="F34" t="n">
-        <v>3.126753420033294</v>
+        <v>3.100437891321425</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.9690128741254</v>
+        <v>-3.995629525802629</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.3833344890820382</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.68341876885323</v>
+        <v>-24.7069718216655</v>
       </c>
       <c r="F35" t="n">
-        <v>2.87315551398906</v>
+        <v>2.848332507801148</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.065581699885971</v>
+        <v>-4.100106102479603</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3694909750213908</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.98898993382524</v>
+        <v>-24.00600992751949</v>
       </c>
       <c r="F36" t="n">
-        <v>2.750533005573454</v>
+        <v>2.731365874213167</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.38072652158916</v>
+        <v>-4.418772753647215</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3260162353551675</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.55772947821879</v>
+        <v>-23.57762977853821</v>
       </c>
       <c r="F37" t="n">
-        <v>2.59607001664677</v>
+        <v>2.576379193172814</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.45634766280297</v>
+        <v>-4.503021722433723</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.256208594254574</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.18292303246585</v>
+        <v>-23.20109514881017</v>
       </c>
       <c r="F38" t="n">
-        <v>2.538175853480657</v>
+        <v>2.520736906095478</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.563822376830699</v>
+        <v>-4.610627359489869</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1618950422173701</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.70586570151904</v>
+        <v>-22.72851538543522</v>
       </c>
       <c r="F39" t="n">
-        <v>2.498479991264544</v>
+        <v>2.473971200344833</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.495781678962248</v>
+        <v>-4.546907121559189</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.04648051158628405</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.34618086554829</v>
+        <v>-22.36917094933837</v>
       </c>
       <c r="F40" t="n">
-        <v>2.483816612081811</v>
+        <v>2.459779144064401</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.548216351843362</v>
+        <v>-4.599839301948287</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.08624892491887193</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.83042268740134</v>
+        <v>-21.84534791264091</v>
       </c>
       <c r="F41" t="n">
-        <v>2.566743258281304</v>
+        <v>2.541736959853607</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.479416300410091</v>
+        <v>-4.538397124712067</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.2353899370167721</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.21153643977011</v>
+        <v>-21.23645109207791</v>
       </c>
       <c r="F42" t="n">
-        <v>2.691617642785687</v>
+        <v>2.669832050857055</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.49093752691081</v>
+        <v>-4.550965735440124</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.3989361822612411</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.55965758897772</v>
+        <v>-20.58217634986549</v>
       </c>
       <c r="F43" t="n">
-        <v>2.80253563246079</v>
+        <v>2.779231333402518</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.485923174922429</v>
+        <v>-4.541932046479332</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.5747737367621668</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.30541816009424</v>
+        <v>-20.32802856710191</v>
       </c>
       <c r="F44" t="n">
-        <v>2.751946974280361</v>
+        <v>2.73275365831439</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.568941467241814</v>
+        <v>-4.628904214256919</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.7619731864294932</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.86621067666286</v>
+        <v>-19.89308917439692</v>
       </c>
       <c r="F45" t="n">
-        <v>2.830055653034098</v>
+        <v>2.808924676247552</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.551764365913469</v>
+        <v>-4.612250805042243</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.9571222822439623</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.51417174555169</v>
+        <v>-19.53631082965705</v>
       </c>
       <c r="F46" t="n">
-        <v>2.871139299351435</v>
+        <v>2.853045736824169</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.652614374703285</v>
+        <v>-4.715064659258318</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.158200681256145</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.03145853977725</v>
+        <v>-19.05753840703797</v>
       </c>
       <c r="F47" t="n">
-        <v>2.903136887496613</v>
+        <v>2.881822618470283</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.96349110568007</v>
+        <v>-5.027368451244852</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.364544824901578</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.5751001396232</v>
+        <v>-18.60337951376133</v>
       </c>
       <c r="F48" t="n">
-        <v>2.868311361937622</v>
+        <v>2.850558199284241</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089674720468627</v>
+        <v>-5.153696081364667</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.572415442542322</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.10644806710078</v>
+        <v>-18.12278726104725</v>
       </c>
       <c r="F49" t="n">
-        <v>2.897009689766685</v>
+        <v>2.875747789951722</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.342984595850342</v>
+        <v>-5.413696123498505</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.781196864118041</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.61861577091522</v>
+        <v>-17.64054537817511</v>
       </c>
       <c r="F50" t="n">
-        <v>2.950635762206395</v>
+        <v>2.92662447879467</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.43065065567854</v>
+        <v>-5.504988751213861</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.989445087614823</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.9289787187273</v>
+        <v>-16.94809348087622</v>
       </c>
       <c r="F51" t="n">
-        <v>2.929007277911864</v>
+        <v>2.901906211029491</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.647485375343207</v>
+        <v>-5.729665760280722</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.191750427642313</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.55283685808451</v>
+        <v>-16.57505449600692</v>
       </c>
       <c r="F52" t="n">
-        <v>2.809003230064603</v>
+        <v>2.784703915990359</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.794341736318849</v>
+        <v>-5.863953510528306</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.387561924478305</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.12989001478255</v>
+        <v>-16.14638631636312</v>
       </c>
       <c r="F53" t="n">
-        <v>2.876978466418845</v>
+        <v>2.852862444584385</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852628668570213</v>
+        <v>-5.923458026943951</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.574190223868588</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.85584193169954</v>
+        <v>-15.86732388129173</v>
       </c>
       <c r="F54" t="n">
-        <v>2.633749664225258</v>
+        <v>2.612042626113676</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.085959689815455</v>
+        <v>-6.166123860115343</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.746482195476265</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.51926501024445</v>
+        <v>-15.52142524021333</v>
       </c>
       <c r="F55" t="n">
-        <v>2.472478677820876</v>
+        <v>2.455851453211884</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.298657241782137</v>
+        <v>-6.37756455100922</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.904358967704174</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.11405823729302</v>
+        <v>-15.11640175950169</v>
       </c>
       <c r="F56" t="n">
-        <v>2.417543375096993</v>
+        <v>2.392615630486347</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.497607875765006</v>
+        <v>-6.568371772624535</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.044150878756493</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.57379126822636</v>
+        <v>-14.57599077510377</v>
       </c>
       <c r="F57" t="n">
-        <v>2.375019575467067</v>
+        <v>2.345980847764118</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.764442099982225</v>
+        <v>-6.835624950532689</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.162216338647501</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.32464474514831</v>
+        <v>-14.3269620827513</v>
       </c>
       <c r="F58" t="n">
-        <v>2.197147549059377</v>
+        <v>2.168108821356428</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721577900478414</v>
+        <v>-6.795064996329022</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.260569832521458</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.94941934570444</v>
+        <v>-13.94917059195045</v>
       </c>
       <c r="F59" t="n">
-        <v>2.248940699101245</v>
+        <v>2.217623910703836</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.858130619117617</v>
+        <v>-6.935283559763908</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.337550493753594</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.83767654095031</v>
+        <v>-13.8366684336315</v>
       </c>
       <c r="F60" t="n">
-        <v>2.068293104491109</v>
+        <v>2.037395269784635</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821419801949417</v>
+        <v>-6.894226098052256</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.394837841539633</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.50904664732014</v>
+        <v>-13.51194004624816</v>
       </c>
       <c r="F61" t="n">
-        <v>1.946770349514207</v>
+        <v>1.918360052347662</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.152602694633719</v>
+        <v>-7.216558594015551</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.437927148369517</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.2092590968503</v>
+        <v>-13.20737380524109</v>
       </c>
       <c r="F62" t="n">
-        <v>1.868242717069534</v>
+        <v>1.837816205265363</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.19265204902656</v>
+        <v>-7.275932187402779</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.466795844189785</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.88200389501851</v>
+        <v>-12.87797146574326</v>
       </c>
       <c r="F63" t="n">
-        <v>1.799743788601624</v>
+        <v>1.769814784305438</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.314266450123353</v>
+        <v>-7.388525991841624</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.487700102999134</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.63911549269881</v>
+        <v>-12.63458555591557</v>
       </c>
       <c r="F64" t="n">
-        <v>1.684374415960334</v>
+        <v>1.654602519298249</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.496013798172195</v>
+        <v>-7.57668856828291</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.506849839734157</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.42750460186799</v>
+        <v>-12.42550147953321</v>
       </c>
       <c r="F65" t="n">
-        <v>1.605480199036092</v>
+        <v>1.583720791713144</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730562403581716</v>
+        <v>-7.806785790726246</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.523569355478228</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.19172531999135</v>
+        <v>-12.18932942857131</v>
       </c>
       <c r="F66" t="n">
-        <v>1.536509947665879</v>
+        <v>1.513493679270125</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.850527174520453</v>
+        <v>-7.926030485008686</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.545397077869745</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.01120864840963</v>
+        <v>-12.00835452639013</v>
       </c>
       <c r="F67" t="n">
-        <v>1.589978912471488</v>
+        <v>1.553948895051058</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.81682758700585</v>
+        <v>-7.885797838376063</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.57483892013123</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.92135617400686</v>
+        <v>-11.91593596063039</v>
       </c>
       <c r="F68" t="n">
-        <v>1.449524687585451</v>
+        <v>1.418757775907395</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.828165521266785</v>
+        <v>-7.900513586770162</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.608493328573532</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.7726407060277</v>
+        <v>-11.77027099921334</v>
       </c>
       <c r="F69" t="n">
-        <v>1.340361066491139</v>
+        <v>1.299932035315889</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.900762340524156</v>
+        <v>-7.969536207351743</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.650635414764178</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.67338795818457</v>
+        <v>-11.66578133023353</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38670781855085</v>
+        <v>1.353924692235168</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.841899346947756</v>
+        <v>-7.913828458760198</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.697901635897229</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.40523141138034</v>
+        <v>-11.40118588980225</v>
       </c>
       <c r="F71" t="n">
-        <v>1.325566764279989</v>
+        <v>1.290400838847113</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.695344108937474</v>
+        <v>-7.770991434756967</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.743837520963894</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.3489606937666</v>
+        <v>-11.34681355610056</v>
       </c>
       <c r="F72" t="n">
-        <v>1.376679114574088</v>
+        <v>1.342115435071931</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.699193245972941</v>
+        <v>-7.769381081507435</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.788481562455853</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.31740824391804</v>
+        <v>-11.32979356240631</v>
       </c>
       <c r="F73" t="n">
-        <v>1.34999700138265</v>
+        <v>1.312422092226896</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.58032822847291</v>
+        <v>-7.658764214797691</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.824360393902744</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.5130596175848</v>
+        <v>-11.52243370641947</v>
       </c>
       <c r="F74" t="n">
-        <v>1.396684153316245</v>
+        <v>1.359004505737757</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.467276193434605</v>
+        <v>-7.541993965752336</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.847308430563966</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.64173076991328</v>
+        <v>-11.64948141319558</v>
       </c>
       <c r="F75" t="n">
-        <v>1.328551809327903</v>
+        <v>1.292011192096645</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.338028979781086</v>
+        <v>-7.405480524021659</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.857721582043206</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.9778756453746</v>
+        <v>-11.98798290316841</v>
       </c>
       <c r="F76" t="n">
-        <v>1.353584292361283</v>
+        <v>1.320329843143298</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.139732960940303</v>
+        <v>-7.216453855592817</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.849617925280433</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.58979678789403</v>
+        <v>-12.59945890739122</v>
       </c>
       <c r="F77" t="n">
-        <v>1.327844824974449</v>
+        <v>1.294276160488264</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.970528039013835</v>
+        <v>-7.037992675557249</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.822816027315654</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.11880437651681</v>
+        <v>-13.12940914181861</v>
       </c>
       <c r="F78" t="n">
-        <v>1.356228937535311</v>
+        <v>1.318758766802291</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.836318842583301</v>
+        <v>-6.898716757926968</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.777637186332438</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.61419093144204</v>
+        <v>-13.62513609661773</v>
       </c>
       <c r="F79" t="n">
-        <v>1.415641807831064</v>
+        <v>1.374610530725095</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662492337753704</v>
+        <v>-6.718147717133881</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.708560287014551</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.17221106316209</v>
+        <v>-14.17922853748526</v>
       </c>
       <c r="F80" t="n">
-        <v>1.40082132101423</v>
+        <v>1.375448438106965</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.394204867921053</v>
+        <v>-6.457558521372166</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.617456861454969</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.95633526495875</v>
+        <v>-14.96089138634767</v>
       </c>
       <c r="F81" t="n">
-        <v>1.46392622071135</v>
+        <v>1.43009571016833</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.279673402661634</v>
+        <v>-6.340591887784186</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.503396824400347</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.7100853241626</v>
+        <v>-15.71478546088278</v>
       </c>
       <c r="F82" t="n">
-        <v>1.496133285701996</v>
+        <v>1.46604717377171</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.194337772739264</v>
+        <v>-6.25339715085829</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.362805078137029</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.57894290995091</v>
+        <v>-16.58201960111872</v>
       </c>
       <c r="F83" t="n">
-        <v>1.452797763295883</v>
+        <v>1.418810145118762</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.933787853886073</v>
+        <v>-5.993881523929596</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.200811526878633</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.64933031338191</v>
+        <v>-17.65248555836677</v>
       </c>
       <c r="F84" t="n">
-        <v>1.535776778706743</v>
+        <v>1.509696911446024</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747104707665901</v>
+        <v>-5.803846748181941</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.019315716760884</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.46113164338598</v>
+        <v>-18.46502005732997</v>
       </c>
       <c r="F85" t="n">
-        <v>1.527921397001707</v>
+        <v>1.498411346396456</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.54086166100019</v>
+        <v>-5.593898579812023</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.820095514344512</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.54973044006982</v>
+        <v>-19.54764876391798</v>
       </c>
       <c r="F86" t="n">
-        <v>1.523417644824153</v>
+        <v>1.496735531632716</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242985586745238</v>
+        <v>-5.300133488649373</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.612375401245062</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.60921195523366</v>
+        <v>-20.61066520084909</v>
       </c>
       <c r="F87" t="n">
-        <v>1.542820437635591</v>
+        <v>1.525643336307247</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.969343365050322</v>
+        <v>-5.027892143358521</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.400268306637618</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.97116494294989</v>
+        <v>-21.97031394326518</v>
       </c>
       <c r="F88" t="n">
-        <v>1.595713341116165</v>
+        <v>1.576074886853575</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659959156597493</v>
+        <v>-4.721715549101915</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.188864790394188</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.43640310778451</v>
+        <v>-23.44074975232796</v>
       </c>
       <c r="F89" t="n">
-        <v>1.390452217163583</v>
+        <v>1.367226471922361</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.319493821198407</v>
+        <v>-4.379220906762361</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.985297488003311</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.92470991022624</v>
+        <v>-24.93297115331938</v>
       </c>
       <c r="F90" t="n">
-        <v>1.240492980414453</v>
+        <v>1.220775972334813</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.127678492264279</v>
+        <v>-4.184315794357585</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.790618828050761</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.57851651289024</v>
+        <v>-26.57741675945153</v>
       </c>
       <c r="F91" t="n">
-        <v>1.074692057226834</v>
+        <v>1.054110957159641</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087524399448704</v>
+        <v>-4.147840638640536</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.60719419746213</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.27749156035819</v>
+        <v>-28.28282012761477</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9892778734874131</v>
+        <v>0.9702809420640686</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.841153444573103</v>
+        <v>-3.901770806730295</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.435667140401367</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.16991847461549</v>
+        <v>-30.1806541629457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8659352884155118</v>
+        <v>0.8524371241856922</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.88201452174213</v>
+        <v>-3.946664313174574</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.272100341631282</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.31006485094108</v>
+        <v>-32.32358919977658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7742629839177458</v>
+        <v>0.7654911410137895</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.91864678509328</v>
+        <v>-3.982785976714896</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.115270378529869</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.40081396864484</v>
+        <v>-34.41809580839592</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3633086900188063</v>
+        <v>0.353240709133519</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.922142429952021</v>
+        <v>-3.988756066810723</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.9631430293192298</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41827237504062</v>
+        <v>-36.44088278204828</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08399750119342238</v>
+        <v>0.07406044333655229</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.099451487337517</v>
+        <v>-4.164140555678485</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.8115149762101246</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.55149292316294</v>
+        <v>-38.57706219061283</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2442265310486502</v>
+        <v>-0.2511916361604484</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.183988486786542</v>
+        <v>-4.254791660554597</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.6628123505006991</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89400702451309</v>
+        <v>-40.9260438895668</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5062558801229556</v>
+        <v>-0.5155775997462646</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.39044101029772</v>
+        <v>-4.463535337063077</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5159884266354061</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31718280367112</v>
+        <v>-43.35020159143795</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4229888340495779</v>
+        <v>-0.4303205236409445</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.710168137995513</v>
+        <v>-4.781220065517561</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3763309495186716</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79962743779364</v>
+        <v>-45.83428276341569</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5702117795047875</v>
+        <v>-0.5687978107978812</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.953436217097625</v>
+        <v>-5.023741883357694</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2447355592180675</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.2025756090612</v>
+        <v>-48.24109316402156</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5947205704244988</v>
+        <v>-0.60125362954252</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.309298100638581</v>
+        <v>-5.385167995606384</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1346324041822292</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.4927335913473</v>
+        <v>-50.53279603804297</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7192152781464719</v>
+        <v>-0.7232215228160401</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.629116874456265</v>
+        <v>-5.699946232830004</v>
       </c>
     </row>
   </sheetData>
